--- a/A1 Highways/37579/res.xlsx
+++ b/A1 Highways/37579/res.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\A1 Highways\37579\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14088022-46C6-4059-A218-351BA307EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="8760" yWindow="1725" windowWidth="27090" windowHeight="18060" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$214</definedName>
+  </definedNames>
+  <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +50,270 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Inspection Test Plan – Guardrail</t>
+  </si>
+  <si>
+    <t>Quantity Installed</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>W-Beam Guardrail</t>
+  </si>
+  <si>
+    <t>(m)</t>
+  </si>
+  <si>
+    <t>Thrie Beam</t>
+  </si>
+  <si>
+    <t>Long Posts</t>
+  </si>
+  <si>
+    <t>Posts through Rock</t>
+  </si>
+  <si>
+    <t>Bolt-Down Posts</t>
+  </si>
+  <si>
+    <t>MELT</t>
+  </si>
+  <si>
+    <t>Trailing Terminal</t>
+  </si>
+  <si>
+    <t>SKT / ET2000 TL2 (&lt;70km/h)</t>
+  </si>
+  <si>
+    <t>SKT / ET2000 / X350 TL3 (&gt;70km/h)</t>
+  </si>
+  <si>
+    <t>Bullnose/Fishtail</t>
+  </si>
+  <si>
+    <t>8m Thrie Beam Transition Type 1</t>
+  </si>
+  <si>
+    <t>6m Thrie Beam Transition Type 2</t>
+  </si>
+  <si>
+    <t>8m W-Beam Transition Type 3</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>Reinstall</t>
+  </si>
+  <si>
+    <t>TAU / TRACC / Quadguard Cushion TL2</t>
+  </si>
+  <si>
+    <t>TAU / TRACC / Quadguard Cushion TL3</t>
+  </si>
+  <si>
+    <t>Type 4 Foundation</t>
+  </si>
+  <si>
+    <t>Type 5 / 6 Foundation</t>
+  </si>
+  <si>
+    <t>Delineators</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>checkpoint-no-status</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>Inspection and Test</t>
+  </si>
+  <si>
+    <t>Run Line Marked and Checked</t>
+  </si>
+  <si>
+    <t>Material Compliance Certified</t>
+  </si>
+  <si>
+    <t>Bolts Tightened Correctly</t>
+  </si>
+  <si>
+    <t>Cables Tensioned Correctly</t>
+  </si>
+  <si>
+    <t>Rail Lapped Correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakaway Bolts Tensioned </t>
+  </si>
+  <si>
+    <t>Soil Plates Installed</t>
+  </si>
+  <si>
+    <t>Reflectors Installed</t>
+  </si>
+  <si>
+    <t>Chevrons Installed</t>
+  </si>
+  <si>
+    <t>Post Heights and Levels Correct</t>
+  </si>
+  <si>
+    <t>Concrete Reinforcement</t>
+  </si>
+  <si>
+    <t>Cushion Bolt Fixings Installed</t>
+  </si>
+  <si>
+    <t>Concrete Test</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - Visual as Discussed with Client</t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - Check Compliance Certificate</t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - Physical Check</t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - Visual Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE OF TEST - Checked with Tape and Level </t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - Installed with Concrete</t>
+  </si>
+  <si>
+    <t>TYPE OF TEST - See Test Docket</t>
+  </si>
+  <si>
+    <t>I confirm that the above works have been installed in accordance with the Specification Requirements. Any minor alterations to the standards are stated on the attached NCR Report:</t>
+  </si>
+  <si>
+    <t>Signed by Client:</t>
+  </si>
+  <si>
+    <t>Signed by A1Highways Rep:</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Add Signature</t>
+  </si>
+  <si>
+    <t>Inspection Test Plan – Guard Rail Heights</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Height to Centre Bolt</t>
+  </si>
+  <si>
+    <t>Marking on Rail</t>
+  </si>
+  <si>
+    <t>Marking on Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cert No </t>
+  </si>
+  <si>
+    <t>Cert No</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Delineator (1)</t>
+  </si>
+  <si>
+    <t>Delineator (2)</t>
+  </si>
+  <si>
+    <t>Delineator (3)</t>
+  </si>
+  <si>
+    <t>Delineator (4)</t>
+  </si>
+  <si>
+    <t>Delineator (5)</t>
+  </si>
+  <si>
+    <t>Delineator (6)</t>
+  </si>
+  <si>
+    <t>Delineator (7)</t>
+  </si>
+  <si>
+    <t>Delineator (8)</t>
+  </si>
+  <si>
+    <t>Delineator (9)</t>
+  </si>
+  <si>
+    <t>Delineator (10)</t>
+  </si>
+  <si>
+    <t>Delineator (11)</t>
+  </si>
+  <si>
+    <t>Delineator (12)</t>
+  </si>
+  <si>
+    <t>Delineator (13)</t>
+  </si>
+  <si>
+    <t>Delineator (14)</t>
+  </si>
+  <si>
+    <t>Delineator (15)</t>
+  </si>
+  <si>
+    <t>Delineator (16)</t>
+  </si>
+  <si>
+    <t>Delineator (17)</t>
+  </si>
+  <si>
+    <t>Delineator (18)</t>
+  </si>
+  <si>
+    <t>Delineator (19)</t>
+  </si>
+  <si>
+    <t>Delineator (20)</t>
+  </si>
+  <si>
+    <t>Delineator (21)</t>
+  </si>
+  <si>
+    <t>Delineator (22)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +634,36 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,8 +827,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,18 +1209,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,7 +1258,1730 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>37</v>
+      </c>
+      <c r="B174" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>37</v>
+      </c>
+      <c r="B178" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>37</v>
+      </c>
+      <c r="B195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+      <c r="B198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>37</v>
+      </c>
+      <c r="B206" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>37</v>
+      </c>
+      <c r="B207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I214" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>